--- a/biology/Zoologie/Douglas_(perroquet)/Douglas_(perroquet).xlsx
+++ b/biology/Zoologie/Douglas_(perroquet)/Douglas_(perroquet).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Douglas, né vers 1967 au Brésil et mort le 23 février 2019 au zoo de Karlsruhe en Allemagne, est un ara rouge qui a tenu le rôle du perroquet Rosalinda dans le film de Fifi Brindacier et les Pirates de 1970.
 </t>
@@ -511,10 +523,12 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Douglas a été importé du Brésil en Suède en 1967, trois ans avant de jouer dans le film. Il était capable de chanter et de dire quelques douzaines de mots en suédois.
-En 2002, il a attiré beaucoup d'attention dans la presse suédoise et internationale quand les autorités ont songé à l'euthanasier parce que son propriétaire actuel ne disposait pas du certificat d'importation. Une pétition demandant de l'épargner a reçu plus de 50 000 signatures, parmi lesquelles celle de l'actrice Inger Nilsson, qui avait joué Fifi Brindacier dans le film de 1970. Douglas a été épargné après que son premier propriétaire a produit les documents administratifs prouvant qu'il a été importé légalement du Brésil en 1967[1],[2],[3].
+En 2002, il a attiré beaucoup d'attention dans la presse suédoise et internationale quand les autorités ont songé à l'euthanasier parce que son propriétaire actuel ne disposait pas du certificat d'importation. Une pétition demandant de l'épargner a reçu plus de 50 000 signatures, parmi lesquelles celle de l'actrice Inger Nilsson, qui avait joué Fifi Brindacier dans le film de 1970. Douglas a été épargné après que son premier propriétaire a produit les documents administratifs prouvant qu'il a été importé légalement du Brésil en 1967.
 </t>
         </is>
       </c>
